--- a/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="RSSI" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -126,7 +126,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
+  <style val="18"/>
   <chart>
     <title>
       <tx>
@@ -155,7 +155,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="25000">
               <a:solidFill>
                 <a:srgbClr val="00AAAA"/>
               </a:solidFill>
@@ -172,7 +172,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$C$2:$C$7</f>
+              <f>'RSSI'!$C$2:$C$152</f>
             </numRef>
           </val>
         </ser>
@@ -185,7 +185,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="25000">
               <a:solidFill>
                 <a:srgbClr val="F08080"/>
               </a:solidFill>
@@ -202,7 +202,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$D$2:$D$7</f>
+              <f>'RSSI'!$D$2:$D$152</f>
             </numRef>
           </val>
         </ser>
@@ -215,7 +215,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="25000">
               <a:solidFill>
                 <a:srgbClr val="3D9140"/>
               </a:solidFill>
@@ -232,7 +232,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$E$2:$E$7</f>
+              <f>'RSSI'!$E$2:$E$152</f>
             </numRef>
           </val>
         </ser>
@@ -254,7 +254,7 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="-44"/>
+          <max val="-30"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,7 +626,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="D2" t="n">
-        <v>-51</v>
+        <v>-62</v>
       </c>
       <c r="E2" t="n">
         <v>-65</v>
@@ -647,7 +647,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D3" t="n">
         <v>-60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-65</v>
       </c>
       <c r="E3" t="n">
         <v>-65</v>
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-47</v>
+        <v>-60</v>
       </c>
       <c r="D4" t="n">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="E4" t="n">
         <v>-65</v>
@@ -689,7 +689,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D5" t="n">
         <v>-63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-62</v>
       </c>
       <c r="E5" t="n">
         <v>-65</v>
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7228124200003</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="D6" t="n">
-        <v>-46</v>
+        <v>-58</v>
       </c>
       <c r="E6" t="n">
         <v>-65</v>
@@ -731,7 +731,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7228101900001</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="D7" t="n">
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="E7" t="n">
         <v>-65</v>
@@ -752,7 +752,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7228124200002</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-61</v>
+        <v>-53</v>
       </c>
       <c r="D8" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="E8" t="n">
         <v>-65</v>
@@ -773,7 +773,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7228124200004</t>
+          <t>7228101900001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="D9" t="n">
-        <v>-55</v>
+        <v>-59</v>
       </c>
       <c r="E9" t="n">
         <v>-65</v>
@@ -794,7 +794,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7224908800005</t>
+          <t>7228124100001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-61</v>
+        <v>-54</v>
       </c>
       <c r="D10" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="E10" t="n">
         <v>-65</v>
@@ -815,7 +815,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7228101600001</t>
+          <t>7228124200002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-60</v>
+        <v>-61</v>
       </c>
       <c r="D11" t="n">
-        <v>-54</v>
+        <v>-65</v>
       </c>
       <c r="E11" t="n">
         <v>-65</v>
@@ -836,7 +836,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7228124200003</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-58</v>
+        <v>-50</v>
       </c>
       <c r="D12" t="n">
-        <v>-58</v>
+        <v>-46</v>
       </c>
       <c r="E12" t="n">
         <v>-65</v>
@@ -857,7 +857,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7228101300001</t>
+          <t>7228124200004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-60</v>
+        <v>-49</v>
       </c>
       <c r="D13" t="n">
-        <v>-63</v>
+        <v>-55</v>
       </c>
       <c r="E13" t="n">
         <v>-65</v>
@@ -878,7 +878,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7224908800006</t>
+          <t>7228124200005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-62</v>
+        <v>-58</v>
       </c>
       <c r="D14" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="E14" t="n">
         <v>-65</v>
@@ -899,7 +899,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7228101400001</t>
+          <t>7228124200006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="D15" t="n">
-        <v>-58</v>
+        <v>-65</v>
       </c>
       <c r="E15" t="n">
         <v>-65</v>
@@ -920,7 +920,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7224908800007</t>
+          <t>7228124200007</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-60</v>
+        <v>-59</v>
       </c>
       <c r="D16" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="E16" t="n">
         <v>-65</v>
@@ -941,7 +941,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7228124200008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="D17" t="n">
-        <v>-52</v>
+        <v>-62</v>
       </c>
       <c r="E17" t="n">
         <v>-65</v>
@@ -962,7 +962,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7228101700001</t>
+          <t>7228124200010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-53</v>
+        <v>-47</v>
       </c>
       <c r="D18" t="n">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="E18" t="n">
         <v>-65</v>
@@ -983,7 +983,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7228124100001</t>
+          <t>7228124200012</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D19" t="n">
         <v>-54</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-63</v>
       </c>
       <c r="E19" t="n">
         <v>-65</v>
@@ -1004,7 +1004,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7228979800010</t>
+          <t>7228124200013</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="D20" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="E20" t="n">
         <v>-65</v>
@@ -1025,7 +1025,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7228124200014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1034,17 +1034,2768 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7228124200017</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-59</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7228124200018</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7228124200019</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7228124200020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7228124200021</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7228124200022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7228124200023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7228124200024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7228124200025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7228124200026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7228124200027</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7228124200028</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7228124200029</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7228124200030</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>-58</v>
       </c>
-      <c r="E21" t="n">
+      <c r="D35" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7228124200031</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7228124200033</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-41</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7228124200034</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7228124200035</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7228124200036</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7228124200037</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7228124200038</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7228124200039</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7228124200040</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7228124200041</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7228124200042</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7228124200043</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7228124200044</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7228124200045</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7228124200046</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7228124200047</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7228124200048</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>7228124200049</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7228124200051</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7228124200052</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7228124200053</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-58</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>7228124200054</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7228124200055</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7228124200056</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7228124200057</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7228124200058</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7228124200059</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7228124200060</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>7228124200061</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>7228124200062</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7228124200064</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7228124200065</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7228124200066</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>7228124200067</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7228124200068</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7228124200069</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7228124200070</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7228124200071</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7228124200075</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>-58</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7228124200076</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7228124200077</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7228124200078</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7228124200079</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7228124200080</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7228124200081</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7228124200082</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>-63</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7228124200084</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-38</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7228124200085</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-63</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7228124300002</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-43</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7228124300003</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>7228124300006</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7228124300009</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7228124300010</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7228124300011</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-41</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7228124300012</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7228124300013</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7228124300014</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>7228124300015</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7228124300016</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7228124300018</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7228124300019</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7228124300020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7228124300023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>-51</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7228124300024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>7228124300025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7228124300026</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7228124300028</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>7228124300029</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>7228124300030</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>-48</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>7228124300031</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7228124300032</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>7228124300033</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>7228124300034</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>7228124300035</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>-45</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>7228124300036</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>7228124300037</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7228124300038</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>7228124300039</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>7228124300040</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7228124300041</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7228124300042</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>-58</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7228124300045</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7228124300047</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7228124300048</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7228124300049</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7228124300050</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7228124300051</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-64</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>7228124300053</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7228124300054</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-47</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7228124300055</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>-43</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7228124300056</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7228124300057</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7228124300058</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7228124300059</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7228124300060</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7228124300061</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7228124300062</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7228124300063</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>-48</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7228124300065</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7228124300066</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7228124300067</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7228124300068</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>-60</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7228124300069</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7228124300073</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7228124300074</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>-52</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7228124300076</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7228124300077</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7228124300078</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>-49</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7228124300081</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>-59</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7228124300082</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>-54</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7228124300083</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>-62</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>7228124300084</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>7228124300086</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>7228125100001</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>7228979800008</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7228979800009</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>-56</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>7228979800010</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>-44</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E152" t="n">
         <v>-65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
@@ -151,7 +151,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'RSSI'!C1</f>
+              <f>'RSSI'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -172,7 +172,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$C$2:$C$152</f>
+              <f>'RSSI'!$D$2:$D$152</f>
             </numRef>
           </val>
         </ser>
@@ -181,7 +181,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'RSSI'!D1</f>
+              <f>'RSSI'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -202,7 +202,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$D$2:$D$152</f>
+              <f>'RSSI'!$E$2:$E$152</f>
             </numRef>
           </val>
         </ser>
@@ -211,7 +211,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'RSSI'!E1</f>
+              <f>'RSSI'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -232,7 +232,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$E$2:$E$152</f>
+              <f>'RSSI'!$F$2:$F$152</f>
             </numRef>
           </val>
         </ser>
@@ -276,12 +276,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="7200000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,547 +599,624 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>UNIT PN</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Test Result</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Main</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Aux</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>7224908800005</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>-61</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-62</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>7224908800006</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>-62</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-60</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>7224908800007</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-60</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>-60</v>
       </c>
       <c r="E4" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F4" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>7228101300001</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>-60</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-63</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>7228101400001</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>-55</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-58</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>7228101600001</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>-60</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-54</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>7228101700001</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>-53</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-59</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>7228101900001</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>-50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-59</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>7228124100001</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>-54</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-63</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>7228124200002</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>-61</v>
       </c>
-      <c r="D11" t="n">
-        <v>-65</v>
-      </c>
       <c r="E11" t="n">
         <v>-65</v>
       </c>
+      <c r="F11" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>7228124200003</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>-50</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-46</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>7228124200004</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>-49</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-55</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>7228124200005</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-58</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>-58</v>
       </c>
       <c r="E14" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F14" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>7228124200006</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>-60</v>
       </c>
-      <c r="D15" t="n">
-        <v>-65</v>
-      </c>
       <c r="E15" t="n">
         <v>-65</v>
       </c>
+      <c r="F15" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>7228124200007</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>-59</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-58</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>7228124200008</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>-63</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-62</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>7228124200010</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>-47</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-58</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>7228124200012</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>-50</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-54</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>7228124200013</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>-43</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-49</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>7228124200014</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>-49</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-48</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>7228124200017</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>-59</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-57</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>7228124200018</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>-59</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-60</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>7228124200019</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>-53</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-50</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>7228124200020</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>-53</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-50</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>7228124200021</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>-65</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>-65</v>
@@ -1147,2650 +1224,3031 @@
       <c r="E26" t="n">
         <v>-65</v>
       </c>
+      <c r="F26" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>7228124200022</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>-57</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-50</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>7228124200023</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>-54</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-49</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>7228124200024</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>-59</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-55</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>7228124200025</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>-57</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-63</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>7228124200026</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>-55</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-60</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>7228124200027</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-65</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D32" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E32" t="n">
         <v>-59</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>7228124200028</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>-56</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>-62</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>7228124200029</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>-51</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>-40</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>7228124200030</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>-58</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>-61</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>7228124200031</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>-53</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>-50</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>7228124200033</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>-40</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>-41</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>7228124200034</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>-60</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>-63</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>7228124200035</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>-65</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D39" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E39" t="n">
         <v>-60</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>7228124200036</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>-53</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-57</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>7228124200037</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>-41</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>-59</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>7228124200038</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>-57</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>-59</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>7228124200039</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>-56</v>
       </c>
-      <c r="D43" t="n">
-        <v>-65</v>
-      </c>
       <c r="E43" t="n">
         <v>-65</v>
       </c>
+      <c r="F43" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>7228124200040</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>-62</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>-64</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>7228124200041</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>-49</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-53</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>7228124200042</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-60</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>-60</v>
       </c>
       <c r="E46" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F46" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>7228124200043</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>-59</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>-64</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>7228124200044</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>-55</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>-46</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>7228124200045</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>-40</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>-53</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>7228124200046</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>-61</v>
       </c>
-      <c r="D50" t="n">
-        <v>-65</v>
-      </c>
       <c r="E50" t="n">
         <v>-65</v>
       </c>
+      <c r="F50" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>7228124200047</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>-50</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>-47</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>7228124200048</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>-49</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>-52</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>7228124200049</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>-62</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>-58</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>7228124200051</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>-64</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>-64</v>
       </c>
       <c r="E54" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F54" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>7228124200052</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>-64</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>-58</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>7228124200053</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>-58</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>-61</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>7228124200054</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>-47</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>-45</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>7228124200055</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>-60</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>-59</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>7228124200056</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>-65</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D59" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E59" t="n">
         <v>-62</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>7228124200057</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>-55</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>-57</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>7228124200058</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>-57</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>-62</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>7228124200059</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>-50</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>-56</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>7228124200060</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>-57</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>-56</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>7228124200061</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>-51</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>-60</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>7228124200062</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>-53</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>-53</v>
       </c>
       <c r="E65" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F65" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>7228124200064</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>-56</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>-54</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>7228124200065</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>-47</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>-54</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>7228124200066</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>-59</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>-56</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>7228124200067</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>-61</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>-61</v>
       </c>
       <c r="E69" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F69" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>7228124200068</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>-56</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>-51</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>7228124200069</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>-54</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>-55</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>7228124200070</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>-61</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>-63</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>7228124200071</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>-51</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>-53</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>7228124200075</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>-58</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>-56</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>7228124200076</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>-62</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>-64</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>7228124200077</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>-61</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>-57</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>7228124200078</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>-60</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>-61</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>7228124200079</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>-64</v>
       </c>
-      <c r="D78" t="n">
-        <v>-65</v>
-      </c>
       <c r="E78" t="n">
         <v>-65</v>
       </c>
+      <c r="F78" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>7228124200080</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>-60</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>-62</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>7228124200081</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>-49</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>-45</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>7228124200082</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>-63</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D81" t="n">
         <v>-63</v>
       </c>
       <c r="E81" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F81" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>7228124200084</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>-38</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>-48</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>7228124200085</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>-63</v>
       </c>
-      <c r="D83" t="n">
-        <v>-65</v>
-      </c>
       <c r="E83" t="n">
         <v>-65</v>
       </c>
+      <c r="F83" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>7228124300002</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>-43</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>-59</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>7228124300003</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>-57</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>-58</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>7228124300006</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>-51</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>-56</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>7228124300009</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>-64</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D87" t="n">
         <v>-64</v>
       </c>
       <c r="E87" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F87" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>7228124300010</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
         <v>-47</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>-55</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>7228124300011</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
         <v>-44</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>-41</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>7228124300012</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>-53</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>-50</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>7228124300013</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
         <v>-55</v>
       </c>
-      <c r="D91" t="n">
-        <v>-65</v>
-      </c>
       <c r="E91" t="n">
         <v>-65</v>
       </c>
+      <c r="F91" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>7228124300014</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>-64</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>-63</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>7228124300015</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>-64</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>-61</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>7228124300016</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>-60</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>-62</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>7228124300018</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>-64</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>-63</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>7228124300019</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>-55</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>-50</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>7228124300020</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
         <v>-51</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>-57</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>7228124300023</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>-51</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D98" t="n">
         <v>-51</v>
       </c>
       <c r="E98" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F98" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>7228124300024</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>-59</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>-57</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>7228124300025</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
         <v>-54</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>-51</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>7228124300026</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
         <v>-61</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>-58</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>7228124300028</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>-65</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D102" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E102" t="n">
         <v>-61</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>7228124300029</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
         <v>-57</v>
       </c>
-      <c r="D103" t="n">
-        <v>-65</v>
-      </c>
       <c r="E103" t="n">
         <v>-65</v>
       </c>
+      <c r="F103" t="n">
+        <v>-65</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>7228124300030</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
         <v>-48</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>-51</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>7228124300031</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
         <v>-53</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>-58</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>7228124300032</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
         <v>-53</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>-52</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>7228124300033</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>-60</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D107" t="n">
         <v>-60</v>
       </c>
       <c r="E107" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F107" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>7228124300034</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
         <v>-40</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>-55</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>7228124300035</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
         <v>-45</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>-57</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>7228124300036</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
         <v>-46</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>-48</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>7228124300037</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>-56</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>-55</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>7228124300038</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
         <v>-54</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>-55</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>7228124300039</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
         <v>-47</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>-53</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>7228124300040</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
         <v>-62</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>-64</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>7228124300041</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>-57</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>-53</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>7228124300042</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>-58</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>-61</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>7228124300045</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
         <v>-61</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>-63</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>7228124300047</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
         <v>-55</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>-51</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>7228124300048</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
         <v>-57</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>-59</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>7228124300049</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
         <v>-57</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>-62</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>7228124300050</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
         <v>-56</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>-63</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>7228124300051</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
         <v>-64</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>-60</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>7228124300053</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
         <v>-52</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>-62</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>7228124300054</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
         <v>-47</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>-52</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>7228124300055</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>-43</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
       <c r="D125" t="n">
         <v>-43</v>
       </c>
       <c r="E125" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F125" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>7228124300056</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
         <v>-57</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>-55</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>7228124300057</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
         <v>-41</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>-43</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>7228124300058</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
         <v>-57</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>-60</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>7228124300059</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
         <v>-50</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>-54</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>7228124300060</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
         <v>-62</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>-61</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>7228124300061</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
         <v>-53</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>-55</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>7228124300062</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
         <v>-54</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>-49</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>7228124300063</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
         <v>-48</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>-55</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>7228124300065</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
         <v>-56</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>-59</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>7228124300066</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
         <v>-59</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>-61</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>7228124300067</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
         <v>-59</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>-58</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>7228124300068</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
         <v>-60</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>-64</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>7228124300069</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>-54</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>-59</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>7228124300073</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
         <v>-55</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>-54</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>7228124300074</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
         <v>-52</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>-57</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>7228124300076</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>-56</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>-54</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>7228124300077</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
         <v>-54</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>-52</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>7228124300078</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>-49</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>-50</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>7228124300081</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
         <v>-59</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>-60</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>7228124300082</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>-54</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>-51</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>7228124300083</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
         <v>-62</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>-59</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>7228124300084</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>-57</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>-62</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>7228124300086</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
         <v>-50</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>-55</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>7228125100001</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
         <v>-56</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>-59</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>7228979800008</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
         <v>-55</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>-51</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>7228979800009</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
         <v>-56</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>-52</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>-65</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>7228979800010</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
         <v>-44</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>-48</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>-65</v>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,21 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="00F8F8FF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00292421"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -597,32 +606,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>UNIT PN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Test Result</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Main</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Aux</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Spec</t>
         </is>

--- a/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/RSSI.xlsx
@@ -604,6 +604,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
+    <col customWidth="1" max="3" min="3" width="14"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
